--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Itga11</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +522,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,34 +543,34 @@
         <v>0.9673539331442912</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.04023833333333333</v>
+        <v>33.94639966666666</v>
       </c>
       <c r="N2">
-        <v>0.120715</v>
+        <v>101.839199</v>
       </c>
       <c r="O2">
-        <v>0.001153919673903629</v>
+        <v>0.9746097333921855</v>
       </c>
       <c r="P2">
-        <v>0.001153919673903629</v>
+        <v>0.9746097333921855</v>
       </c>
       <c r="Q2">
-        <v>0.3995928988061111</v>
+        <v>337.1098930580492</v>
       </c>
       <c r="R2">
-        <v>3.596336089255</v>
+        <v>3033.989037522443</v>
       </c>
       <c r="S2">
-        <v>0.001116248735083253</v>
+        <v>0.9427925588776398</v>
       </c>
       <c r="T2">
-        <v>0.001116248735083253</v>
+        <v>0.9427925588776397</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +584,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -614,33 +611,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>33.94639966666667</v>
+        <v>0.8843623333333334</v>
       </c>
       <c r="N3">
-        <v>101.839199</v>
+        <v>2.653087</v>
       </c>
       <c r="O3">
-        <v>0.9734851120464462</v>
+        <v>0.02539026660781448</v>
       </c>
       <c r="P3">
-        <v>0.9734851120464463</v>
+        <v>0.02539026660781448</v>
       </c>
       <c r="Q3">
-        <v>337.1098930580492</v>
+        <v>8.782294869028778</v>
       </c>
       <c r="R3">
-        <v>3033.989037522443</v>
+        <v>79.040653821259</v>
       </c>
       <c r="S3">
-        <v>0.9417046519955408</v>
+        <v>0.0245613742666515</v>
       </c>
       <c r="T3">
-        <v>0.9417046519955408</v>
+        <v>0.0245613742666515</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,7 +646,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.930652333333333</v>
+        <v>0.3351376666666667</v>
       </c>
       <c r="H4">
-        <v>29.791957</v>
+        <v>1.005413</v>
       </c>
       <c r="I4">
-        <v>0.9673539331442913</v>
+        <v>0.03264606685570879</v>
       </c>
       <c r="J4">
-        <v>0.9673539331442912</v>
+        <v>0.03264606685570878</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8843623333333334</v>
+        <v>33.94639966666666</v>
       </c>
       <c r="N4">
-        <v>2.653087</v>
+        <v>101.839199</v>
       </c>
       <c r="O4">
-        <v>0.02536096827965005</v>
+        <v>0.9746097333921855</v>
       </c>
       <c r="P4">
-        <v>0.02536096827965006</v>
+        <v>0.9746097333921855</v>
       </c>
       <c r="Q4">
-        <v>8.782294869028778</v>
+        <v>11.37671717602078</v>
       </c>
       <c r="R4">
-        <v>79.040653821259</v>
+        <v>102.390454584187</v>
       </c>
       <c r="S4">
-        <v>0.02453303241366709</v>
+        <v>0.03181717451454581</v>
       </c>
       <c r="T4">
-        <v>0.02453303241366709</v>
+        <v>0.0318171745145458</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +708,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,170 +717,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3351376666666666</v>
+        <v>0.3351376666666667</v>
       </c>
       <c r="H5">
         <v>1.005413</v>
       </c>
       <c r="I5">
-        <v>0.03264606685570878</v>
+        <v>0.03264606685570879</v>
       </c>
       <c r="J5">
         <v>0.03264606685570878</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04023833333333333</v>
+        <v>0.8843623333333334</v>
       </c>
       <c r="N5">
-        <v>0.120715</v>
+        <v>2.653087</v>
       </c>
       <c r="O5">
-        <v>0.001153919673903629</v>
+        <v>0.02539026660781448</v>
       </c>
       <c r="P5">
-        <v>0.001153919673903629</v>
+        <v>0.02539026660781448</v>
       </c>
       <c r="Q5">
-        <v>0.01348538114388889</v>
+        <v>0.2963831288812223</v>
       </c>
       <c r="R5">
-        <v>0.121368430295</v>
+        <v>2.667448159931001</v>
       </c>
       <c r="S5">
-        <v>3.767093882037554E-05</v>
+        <v>0.0008288923411629819</v>
       </c>
       <c r="T5">
-        <v>3.767093882037554E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.3351376666666666</v>
-      </c>
-      <c r="H6">
-        <v>1.005413</v>
-      </c>
-      <c r="I6">
-        <v>0.03264606685570878</v>
-      </c>
-      <c r="J6">
-        <v>0.03264606685570878</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>33.94639966666667</v>
-      </c>
-      <c r="N6">
-        <v>101.839199</v>
-      </c>
-      <c r="O6">
-        <v>0.9734851120464462</v>
-      </c>
-      <c r="P6">
-        <v>0.9734851120464463</v>
-      </c>
-      <c r="Q6">
-        <v>11.37671717602078</v>
-      </c>
-      <c r="R6">
-        <v>102.390454584187</v>
-      </c>
-      <c r="S6">
-        <v>0.03178046005090544</v>
-      </c>
-      <c r="T6">
-        <v>0.03178046005090544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.3351376666666666</v>
-      </c>
-      <c r="H7">
-        <v>1.005413</v>
-      </c>
-      <c r="I7">
-        <v>0.03264606685570878</v>
-      </c>
-      <c r="J7">
-        <v>0.03264606685570878</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.8843623333333334</v>
-      </c>
-      <c r="N7">
-        <v>2.653087</v>
-      </c>
-      <c r="O7">
-        <v>0.02536096827965005</v>
-      </c>
-      <c r="P7">
-        <v>0.02536096827965006</v>
-      </c>
-      <c r="Q7">
-        <v>0.2963831288812222</v>
-      </c>
-      <c r="R7">
-        <v>2.667448159931</v>
-      </c>
-      <c r="S7">
-        <v>0.0008279358659829655</v>
-      </c>
-      <c r="T7">
-        <v>0.0008279358659829654</v>
+        <v>0.0008288923411629817</v>
       </c>
     </row>
   </sheetData>
